--- a/test_data/test_case.xlsx
+++ b/test_data/test_case.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>测试用例编号</t>
   </si>
@@ -42,6 +42,24 @@
     <t>请求参数(get)</t>
   </si>
   <si>
+    <t>提交数据(post)</t>
+  </si>
+  <si>
+    <t>取值方式</t>
+  </si>
+  <si>
+    <t>取值代码</t>
+  </si>
+  <si>
+    <t>传值变量</t>
+  </si>
+  <si>
+    <t>期望结果类型</t>
+  </si>
+  <si>
+    <t>期望结果</t>
+  </si>
+  <si>
     <t>case01</t>
   </si>
   <si>
@@ -63,12 +81,33 @@
     <t>/cgi-bin/token</t>
   </si>
   <si>
+    <t>{'grant_type':'client_credential','appid':'wx5112b86dc2a467ee','secret':'c47f6c4369cb884f9562ba0fc9b6934b'}</t>
+  </si>
+  <si>
+    <t>正则取值</t>
+  </si>
+  <si>
+    <t>"access_token":"(.+?)","e</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>json键是否存在</t>
+  </si>
+  <si>
+    <t>access_token,expires_in</t>
+  </si>
+  <si>
     <t>case02</t>
   </si>
   <si>
     <t>测试能否正确新增用户标签</t>
   </si>
   <si>
+    <t>正则匹配</t>
+  </si>
+  <si>
     <t>stp_02</t>
   </si>
   <si>
@@ -81,6 +120,9 @@
     <t>/cgi-bin/tags/create</t>
   </si>
   <si>
+    <t>无</t>
+  </si>
+  <si>
     <t>case03</t>
   </si>
   <si>
@@ -91,6 +133,9 @@
   </si>
   <si>
     <t>/cgi-bin/tags/delete</t>
+  </si>
+  <si>
+    <t>json键值对</t>
   </si>
 </sst>
 </file>
@@ -98,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -113,36 +158,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,68 +241,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -226,6 +248,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -235,22 +266,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,187 +310,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,21 +501,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -485,30 +515,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,8 +537,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +548,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,10 +609,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,137 +621,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -715,6 +760,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1064,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1075,10 +1123,14 @@
     <col min="2" max="2" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
+    <col min="8" max="9" width="92.5" customWidth="1"/>
+    <col min="10" max="10" width="8.375" customWidth="1"/>
+    <col min="11" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="8.875" customWidth="1"/>
+    <col min="13" max="13" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:11">
+    <row r="1" ht="27" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,134 +1155,180 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" ht="27" spans="1:11">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" ht="70" customHeight="1" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" ht="27" spans="1:11">
+      <c r="J2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" ht="27" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="2"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="2"/>
+      <c r="M3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="1"/>
       <c r="K4" s="2"/>
-    </row>
-    <row r="5" ht="27" spans="1:11">
+      <c r="L4" s="2"/>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="1"/>
       <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="2"/>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="2"/>
+      <c r="M6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1240,10 +1338,11 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="2"/>
+      <c r="J7" s="1"/>
       <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1253,10 +1352,11 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="2"/>
+      <c r="J8" s="1"/>
       <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1266,10 +1366,11 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="2"/>
+      <c r="J9" s="1"/>
       <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1279,10 +1380,11 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="2"/>
+      <c r="J10" s="1"/>
       <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1292,10 +1394,11 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="1"/>
       <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1305,10 +1408,11 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="1"/>
       <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1318,10 +1422,11 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="1"/>
       <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1331,10 +1436,11 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="1"/>
       <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1344,10 +1450,11 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="2"/>
+      <c r="J15" s="1"/>
       <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1357,10 +1464,11 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="2"/>
+      <c r="J16" s="1"/>
       <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1372,8 +1480,9 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1385,6 +1494,7 @@
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1395,6 +1505,14 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M7">
+      <formula1>"json键是否存在,正则匹配,json键值对,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"正则取值,json取值"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
